--- a/ConsolidadedResultsPhantomExpanded.xlsx
+++ b/ConsolidadedResultsPhantomExpanded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardobertini/RProjects/CoralMethodsPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA283C8-9FD1-0A47-9FAD-D27B98AE5DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81083C00-75EE-BC46-B26C-00E37D661E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,26 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={BBF0D43F-D855-7248-8974-09E8877BBEB9}</author>
-  </authors>
-  <commentList>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{BBF0D43F-D855-7248-8974-09E8877BBEB9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Should have 6 points. Remove Air and run again</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="317">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -391,30 +373,6 @@
     <t>LB_0031_PNormal</t>
   </si>
   <si>
-    <t>Poly3_AllPoints_n7</t>
-  </si>
-  <si>
-    <t>[0.001225, 1.13, 1.26, 1.44, 1.65, 1.77, 1.92]</t>
-  </si>
-  <si>
-    <t>[19611.58, 30083.36, 31711.8, 34008.78, 36201.44, 37724.74, 39447.42]</t>
-  </si>
-  <si>
-    <t>['air', 'epoxy', 'insert1', 'insert2', 'insert3', 'insert4', 'insert5']</t>
-  </si>
-  <si>
-    <t>['(255, 255, 255)', '(0, 0, 255)', '(0, 255, 0)', '(255, 0, 0)', '(0, 255, 255)', '(255, 255, 0)', '(255, 0, 255)']</t>
-  </si>
-  <si>
-    <t>[-1212.2751660749866, 4943.880491735611, 5290.450637389322, 19603.53151251024]</t>
-  </si>
-  <si>
-    <t>[19610.01973122322, 30145.39353235327, 31693.397836687822, 33853.57676851657, 36346.79812254822, 37733.96407724834, 39405.969930371735]</t>
-  </si>
-  <si>
-    <t>[1.5602687767823227, -62.03353235327086, 18.402163312177436, 155.20323148342868, -145.3581225482194, -9.224077248341928, 41.45006962826301]</t>
-  </si>
-  <si>
     <t>[19611.58, 20703.42, 22388.77, 28316.82, 30083.36, 31711.8, 34008.78, 36201.44, 37724.74, 39447.42, 45096.31]</t>
   </si>
   <si>
@@ -1001,13 +959,25 @@
   </si>
   <si>
     <t>London</t>
+  </si>
+  <si>
+    <t>[30107.03, 31745.03, 34008.51, 36231.89, 37648.13, 39306.02]</t>
+  </si>
+  <si>
+    <t>[3072.5457262814907, -15387.45583625941, 36684.73329940086, 3852.477556639823]</t>
+  </si>
+  <si>
+    <t>[30091.35083845754, 31792.363357995528, 33945.637463654464, 36292.19845710724, 37615.07706254733, 39309.982822201826]</t>
+  </si>
+  <si>
+    <t>[15.679161542459042, -47.333357995528786, 62.87253634553781, -60.30845710723952, 33.05293745266681, -3.9628222018291126]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,20 +989,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1071,12 +1027,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,9 +1050,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Leonardo Bertini" id="{A1EBBE25-4DC4-D641-BD94-FD1851D0F267}" userId="d37d80f881b5f91f" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1383,20 +1336,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D18" dT="2023-01-18T18:54:34.34" personId="{A1EBBE25-4DC4-D641-BD94-FD1851D0F267}" id="{BBF0D43F-D855-7248-8974-09E8877BBEB9}">
-    <text>Should have 6 points. Remove Air and run again</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G61"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1424,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1516,10 +1461,10 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
@@ -1608,10 +1553,10 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H3" t="s">
         <v>38</v>
@@ -1700,10 +1645,10 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -1792,10 +1737,10 @@
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H5" t="s">
         <v>38</v>
@@ -1884,10 +1829,10 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -1976,10 +1921,10 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -2068,10 +2013,10 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H8" t="s">
         <v>38</v>
@@ -2160,10 +2105,10 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G9" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
@@ -2252,10 +2197,10 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G10" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -2344,10 +2289,10 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -2436,10 +2381,10 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G12" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
@@ -2528,10 +2473,10 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G13" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -2620,10 +2565,10 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G14" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -2712,10 +2657,10 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G15" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
@@ -2804,10 +2749,10 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -2896,10 +2841,10 @@
         <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G17" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H17" t="s">
         <v>38</v>
@@ -2981,59 +2926,59 @@
       <c r="C18" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>117</v>
+      <c r="E18" t="s">
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G18" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>313</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="M18">
-        <v>0.99980593438771725</v>
+        <v>0.99982087381395046</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>315</v>
       </c>
       <c r="O18" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="P18">
-        <v>51209.4519163613</v>
+        <v>11184.549345037351</v>
       </c>
       <c r="Q18">
-        <v>226.29505499758781</v>
+        <v>105.7570297665236</v>
       </c>
       <c r="R18">
-        <v>1061.6728628374351</v>
+        <v>1093.1230321705709</v>
       </c>
       <c r="S18">
         <v>868.76254528963523</v>
       </c>
       <c r="T18">
-        <v>-1.6414027517917519E-2</v>
+        <v>1.2722956642706359E-2</v>
       </c>
       <c r="U18">
-        <v>1.222051835215209</v>
+        <v>1.25825294621344</v>
       </c>
       <c r="V18">
         <v>63.01707445872205</v>
@@ -3080,16 +3025,16 @@
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -3098,16 +3043,16 @@
         <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M19">
         <v>0.99858670800352134</v>
       </c>
       <c r="N19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P19">
         <v>944267.66235134925</v>
@@ -3163,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G20" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H20" t="s">
         <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J20" t="s">
         <v>40</v>
@@ -3190,16 +3135,16 @@
         <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M20">
         <v>0.99997313889481587</v>
       </c>
       <c r="N20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P20">
         <v>2081.7990214385259</v>
@@ -3255,25 +3200,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G21" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
         <v>31</v>
@@ -3282,16 +3227,16 @@
         <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="M21">
         <v>0.99744462587606453</v>
       </c>
       <c r="N21" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O21" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P21">
         <v>1664467.4917226869</v>
@@ -3347,25 +3292,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
@@ -3374,16 +3319,16 @@
         <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M22">
         <v>0.99994112495737852</v>
       </c>
       <c r="N22" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="P22">
         <v>4757.9033966089992</v>
@@ -3439,25 +3384,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G23" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -3466,16 +3411,16 @@
         <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M23">
         <v>0.99735237412817157</v>
       </c>
       <c r="N23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O23" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="P23">
         <v>1802638.153948318</v>
@@ -3531,25 +3476,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G24" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J24" t="s">
         <v>40</v>
@@ -3558,16 +3503,16 @@
         <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M24">
         <v>0.99978564298501227</v>
       </c>
       <c r="N24" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="O24" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="P24">
         <v>13330.27210184553</v>
@@ -3623,25 +3568,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G25" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -3650,16 +3595,16 @@
         <v>32</v>
       </c>
       <c r="L25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M25">
         <v>0.99882147922086639</v>
       </c>
       <c r="N25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O25" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P25">
         <v>752257.45083807933</v>
@@ -3715,25 +3660,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G26" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
@@ -3742,16 +3687,16 @@
         <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M26">
         <v>0.99858721933786732</v>
       </c>
       <c r="N26" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="O26" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P26">
         <v>957956.92669416789</v>
@@ -3807,25 +3752,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E27" t="s">
         <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G27" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H27" t="s">
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
         <v>40</v>
@@ -3834,16 +3779,16 @@
         <v>41</v>
       </c>
       <c r="L27" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M27">
         <v>0.99999673893262497</v>
       </c>
       <c r="N27" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O27" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="P27">
         <v>215.2741670487685</v>
@@ -3899,25 +3844,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E28" t="s">
         <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G28" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H28" t="s">
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J28" t="s">
         <v>40</v>
@@ -3926,16 +3871,16 @@
         <v>41</v>
       </c>
       <c r="L28" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M28">
         <v>0.9999313708469717</v>
       </c>
       <c r="N28" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O28" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="P28">
         <v>4599.7948357433806</v>
@@ -3991,25 +3936,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G29" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J29" t="s">
         <v>31</v>
@@ -4018,16 +3963,16 @@
         <v>32</v>
       </c>
       <c r="L29" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M29">
         <v>0.99876724264055317</v>
       </c>
       <c r="N29" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O29" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="P29">
         <v>857947.87397254014</v>
@@ -4083,25 +4028,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E30" t="s">
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H30" t="s">
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
@@ -4110,16 +4055,16 @@
         <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M30">
         <v>0.99981590202266701</v>
       </c>
       <c r="N30" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="O30" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P30">
         <v>12445.85455291554</v>
@@ -4175,25 +4120,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J31" t="s">
         <v>31</v>
@@ -4202,16 +4147,16 @@
         <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M31">
         <v>0.99879082976865985</v>
       </c>
       <c r="N31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O31" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="P31">
         <v>847370.34817103099</v>
@@ -4267,25 +4212,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
         <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G32" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H32" t="s">
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
@@ -4294,16 +4239,16 @@
         <v>41</v>
       </c>
       <c r="L32" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M32">
         <v>0.99990609393501906</v>
       </c>
       <c r="N32" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="O32" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="P32">
         <v>6180.0860017213199</v>
@@ -4359,25 +4304,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G33" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J33" t="s">
         <v>31</v>
@@ -4386,16 +4331,16 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M33">
         <v>0.99893185694917908</v>
       </c>
       <c r="N33" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O33" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P33">
         <v>739716.54942673049</v>
@@ -4451,25 +4396,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J34" t="s">
         <v>31</v>
@@ -4478,16 +4423,16 @@
         <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M34">
         <v>0.99895323621912568</v>
       </c>
       <c r="N34" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="O34" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P34">
         <v>1016135.856803235</v>
@@ -4543,25 +4488,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H35" t="s">
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J35" t="s">
         <v>40</v>
@@ -4570,16 +4515,16 @@
         <v>41</v>
       </c>
       <c r="L35" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M35">
         <v>0.99994523371582622</v>
       </c>
       <c r="N35" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O35" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="P35">
         <v>5006.6520254361876</v>
@@ -4635,25 +4580,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
         <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G36" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -4662,16 +4607,16 @@
         <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M36">
         <v>0.99874552618261225</v>
       </c>
       <c r="N36" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="O36" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P36">
         <v>861140.65285099135</v>
@@ -4727,25 +4672,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E37" t="s">
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H37" t="s">
         <v>38</v>
       </c>
       <c r="I37" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J37" t="s">
         <v>40</v>
@@ -4754,16 +4699,16 @@
         <v>41</v>
       </c>
       <c r="L37" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M37">
         <v>0.99991475910755045</v>
       </c>
       <c r="N37" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O37" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P37">
         <v>5659.5896804126278</v>
@@ -4819,25 +4764,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G38" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
@@ -4846,16 +4791,16 @@
         <v>32</v>
       </c>
       <c r="L38" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M38">
         <v>0.99864875687614507</v>
       </c>
       <c r="N38" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="O38" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="P38">
         <v>943261.00294229807</v>
@@ -4911,25 +4856,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J39" t="s">
         <v>40</v>
@@ -4938,16 +4883,16 @@
         <v>41</v>
       </c>
       <c r="L39" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M39">
         <v>0.9999829321418845</v>
       </c>
       <c r="N39" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="O39" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="P39">
         <v>1154.0112704476039</v>
@@ -5003,25 +4948,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E40" t="s">
         <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H40" t="s">
         <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J40" t="s">
         <v>40</v>
@@ -5030,16 +4975,16 @@
         <v>41</v>
       </c>
       <c r="L40" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M40">
         <v>0.99988186321641559</v>
       </c>
       <c r="N40" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="O40" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P40">
         <v>7982.3309638047231</v>
@@ -5095,25 +5040,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E41" t="s">
         <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
@@ -5122,16 +5067,16 @@
         <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M41">
         <v>0.99864487481543796</v>
       </c>
       <c r="N41" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O41" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P41">
         <v>947809.25684309739</v>
@@ -5187,25 +5132,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="J42" t="s">
         <v>31</v>
@@ -5214,16 +5159,16 @@
         <v>32</v>
       </c>
       <c r="L42" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M42">
         <v>0.99864487481543796</v>
       </c>
       <c r="N42" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O42" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P42">
         <v>947809.25684309739</v>
@@ -5279,25 +5224,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E43" t="s">
         <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H43" t="s">
         <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J43" t="s">
         <v>40</v>
@@ -5306,16 +5251,16 @@
         <v>41</v>
       </c>
       <c r="L43" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M43">
         <v>0.99988186321641559</v>
       </c>
       <c r="N43" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="O43" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P43">
         <v>7982.3309638047231</v>
@@ -5371,25 +5316,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D44" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
         <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="J44" t="s">
         <v>31</v>
@@ -5398,16 +5343,16 @@
         <v>32</v>
       </c>
       <c r="L44" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M44">
         <v>0.99864487481543796</v>
       </c>
       <c r="N44" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O44" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P44">
         <v>947809.25684309739</v>
@@ -5463,25 +5408,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E45" t="s">
         <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G45" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H45" t="s">
         <v>38</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J45" t="s">
         <v>40</v>
@@ -5490,16 +5435,16 @@
         <v>41</v>
       </c>
       <c r="L45" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M45">
         <v>0.99988186321641559</v>
       </c>
       <c r="N45" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="O45" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P45">
         <v>7982.3309638047231</v>
@@ -5555,25 +5500,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G46" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J46" t="s">
         <v>31</v>
@@ -5582,16 +5527,16 @@
         <v>32</v>
       </c>
       <c r="L46" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M46">
         <v>0.9986594499795497</v>
       </c>
       <c r="N46" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O46" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P46">
         <v>947904.35424197593</v>
@@ -5647,25 +5592,25 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
         <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G47" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H47" t="s">
         <v>38</v>
       </c>
       <c r="I47" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="J47" t="s">
         <v>40</v>
@@ -5674,16 +5619,16 @@
         <v>41</v>
       </c>
       <c r="L47" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M47">
         <v>0.99988583361336947</v>
       </c>
       <c r="N47" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="O47" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P47">
         <v>7830.6313005124712</v>
@@ -5739,25 +5684,25 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G48" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J48" t="s">
         <v>31</v>
@@ -5766,16 +5711,16 @@
         <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M48">
         <v>0.99881403943162961</v>
       </c>
       <c r="N48" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O48" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P48">
         <v>817310.33120256383</v>
@@ -5831,25 +5776,25 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E49" t="s">
         <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G49" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H49" t="s">
         <v>38</v>
       </c>
       <c r="I49" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J49" t="s">
         <v>40</v>
@@ -5858,16 +5803,16 @@
         <v>41</v>
       </c>
       <c r="L49" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M49">
         <v>0.99987077943686908</v>
       </c>
       <c r="N49" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O49" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P49">
         <v>8625.4984090901653</v>
@@ -5923,25 +5868,25 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G50" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J50" t="s">
         <v>31</v>
@@ -5950,16 +5895,16 @@
         <v>32</v>
       </c>
       <c r="L50" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M50">
         <v>0.99864498686790382</v>
       </c>
       <c r="N50" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O50" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="P50">
         <v>961609.37350798131</v>
@@ -6015,25 +5960,25 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D51" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E51" t="s">
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G51" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H51" t="s">
         <v>38</v>
       </c>
       <c r="I51" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="J51" t="s">
         <v>40</v>
@@ -6042,16 +5987,16 @@
         <v>41</v>
       </c>
       <c r="L51" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M51">
         <v>0.99995635091134072</v>
       </c>
       <c r="N51" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="O51" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P51">
         <v>3062.5489598835611</v>
@@ -6107,25 +6052,25 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J52" t="s">
         <v>31</v>
@@ -6134,16 +6079,16 @@
         <v>32</v>
       </c>
       <c r="L52" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M52">
         <v>0.99892534691161416</v>
       </c>
       <c r="N52" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O52" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P52">
         <v>687972.91847450985</v>
@@ -6199,25 +6144,25 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D53" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G53" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H53" t="s">
         <v>38</v>
       </c>
       <c r="I53" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J53" t="s">
         <v>40</v>
@@ -6226,16 +6171,16 @@
         <v>41</v>
       </c>
       <c r="L53" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M53">
         <v>0.999536724346476</v>
       </c>
       <c r="N53" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="O53" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P53">
         <v>27792.34437001247</v>
@@ -6291,25 +6236,25 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D54" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E54" t="s">
         <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G54" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H54" t="s">
         <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J54" t="s">
         <v>40</v>
@@ -6318,16 +6263,16 @@
         <v>41</v>
       </c>
       <c r="L54" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M54">
         <v>0.99992899317154882</v>
       </c>
       <c r="N54" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O54" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P54">
         <v>4129.9125892495358</v>
@@ -6383,25 +6328,25 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E55" t="s">
         <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G55" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H55" t="s">
         <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
@@ -6410,16 +6355,16 @@
         <v>32</v>
       </c>
       <c r="L55" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M55">
         <v>0.99898940147146886</v>
       </c>
       <c r="N55" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O55" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P55">
         <v>626436.26479329634</v>
@@ -6475,25 +6420,25 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E56" t="s">
         <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G56" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H56" t="s">
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
@@ -6502,16 +6447,16 @@
         <v>32</v>
       </c>
       <c r="L56" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M56">
         <v>0.99898940147146886</v>
       </c>
       <c r="N56" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O56" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P56">
         <v>626436.26479329634</v>
@@ -6567,25 +6512,25 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D57" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
         <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G57" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H57" t="s">
         <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J57" t="s">
         <v>40</v>
@@ -6594,16 +6539,16 @@
         <v>41</v>
       </c>
       <c r="L57" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M57">
         <v>0.99992899317154882</v>
       </c>
       <c r="N57" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O57" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P57">
         <v>4129.9125892495358</v>
@@ -6659,25 +6604,25 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D58" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E58" t="s">
         <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G58" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H58" t="s">
         <v>38</v>
       </c>
       <c r="I58" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J58" t="s">
         <v>40</v>
@@ -6686,16 +6631,16 @@
         <v>41</v>
       </c>
       <c r="L58" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M58">
         <v>0.99982859105768773</v>
       </c>
       <c r="N58" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="O58" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P58">
         <v>15216.174037177399</v>
@@ -6751,25 +6696,25 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E59" t="s">
         <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G59" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="J59" t="s">
         <v>31</v>
@@ -6778,16 +6723,16 @@
         <v>32</v>
       </c>
       <c r="L59" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M59">
         <v>0.99901002099263114</v>
       </c>
       <c r="N59" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O59" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P59">
         <v>943693.99371889106</v>
@@ -6843,25 +6788,25 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E60" t="s">
         <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G60" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H60" t="s">
         <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J60" t="s">
         <v>31</v>
@@ -6870,16 +6815,16 @@
         <v>32</v>
       </c>
       <c r="L60" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M60">
         <v>0.99890621540189228</v>
       </c>
       <c r="N60" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O60" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P60">
         <v>1046631.847678181</v>
@@ -6935,25 +6880,25 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D61" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E61" t="s">
         <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G61" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H61" t="s">
         <v>38</v>
       </c>
       <c r="I61" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J61" t="s">
         <v>40</v>
@@ -6962,16 +6907,16 @@
         <v>41</v>
       </c>
       <c r="L61" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M61">
         <v>0.99988233990418507</v>
       </c>
       <c r="N61" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="O61" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P61">
         <v>10508.819966946419</v>
@@ -7021,6 +6966,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ConsolidadedResultsPhantomExpanded.xlsx
+++ b/ConsolidadedResultsPhantomExpanded.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardobertini/RProjects/CoralMethodsPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81083C00-75EE-BC46-B26C-00E37D661E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD3004E-210D-D642-B0B6-5E5CF4DDB440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="318">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -971,6 +982,9 @@
   </si>
   <si>
     <t>[15.679161542459042, -47.333357995528786, 62.87253634553781, -60.30845710723952, 33.05293745266681, -3.9628222018291126]</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1061,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1338,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD61"/>
+  <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:AA18"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1350,12 +1360,12 @@
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="95.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="95.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,76 +1385,79 @@
         <v>310</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1466,77 +1479,81 @@
       <c r="G2" t="s">
         <v>311</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="str">
+        <f>G2&amp;":"&amp;F2</f>
+        <v>Bristol:Expanded</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.99879348009914604</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1603413.82243718</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1266.259776837747</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>652.40340845224</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>564.42918756424729</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1.378864769667308E-2</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1.155864053146576</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>70.004972573151221</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>643.53</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>45050.3</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>28.3538</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>117.26</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0.45351999999999998</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>26.224799999999998</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0.970279</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1.140143022682981</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1558,77 +1575,81 @@
       <c r="G3" t="s">
         <v>311</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H61" si="0">G3&amp;":"&amp;F3</f>
+        <v>Bristol:Normal</v>
+      </c>
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>42</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.99990389060262275</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>44</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>14376.15874121757</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>119.9006202703621</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>698.42889291289941</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>564.42918756424729</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>8.5308987790622723E-2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1.2374074698846069</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>70.004972573151221</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>643.53</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>45050.3</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>28.3538</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>117.26</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.45351999999999998</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>26.224799999999998</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.970279</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1.140143022682981</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1650,60 +1671,61 @@
       <c r="G4" t="s">
         <v>311</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Expanded</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>47</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.9988752076271582</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>48</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>49</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1325164.2551338321</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1151.1577889819589</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1296.8631903755061</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>969.79044585193287</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-7.5537883866536829E-2</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1.3372612567205171</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>46.216576491805853</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1402.83</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>64834</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
         <v>0</v>
       </c>
@@ -1717,10 +1739,13 @@
         <v>0</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>1.446528996032389</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1742,60 +1767,61 @@
       <c r="G5" t="s">
         <v>311</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Normal</v>
+      </c>
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>51</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>52</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.99986045016169633</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>54</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>16561.19452639782</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>128.6903047101755</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1325.653858919927</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>969.79044585193287</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-5.5014606958842457E-2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1.3669487718610991</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>46.216576491805853</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1402.83</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>64834</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
         <v>0</v>
       </c>
@@ -1809,10 +1835,13 @@
         <v>0</v>
       </c>
       <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>1.446528996032389</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1834,60 +1863,61 @@
       <c r="G6" t="s">
         <v>311</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Expanded</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>56</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>32</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>57</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.99769011172011279</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>58</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>59</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>870939.87917929795</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>933.24159743300015</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>786.51856056212716</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>668.10637578535261</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2.1041607355645409E-2</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1.177235525761271</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>70.410613908686116</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>770.31</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>54238</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
       <c r="Z6">
         <v>0</v>
       </c>
@@ -1901,10 +1931,13 @@
         <v>0</v>
       </c>
       <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>1.1529750769022491</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1926,60 +1959,61 @@
       <c r="G7" t="s">
         <v>311</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Normal</v>
+      </c>
+      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>61</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>41</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>62</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.99992240114222386</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>63</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>64</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3488.9392366748348</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>59.067243347517369</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>815.83588792475359</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>668.10637578535261</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5.9100735969614383E-2</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1.221116752501795</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>70.410613908686116</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>770.31</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>54238</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
       <c r="Z7">
         <v>0</v>
       </c>
@@ -1993,10 +2027,13 @@
         <v>0</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>1.1529750769022491</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -2018,60 +2055,61 @@
       <c r="G8" t="s">
         <v>311</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Normal</v>
+      </c>
+      <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>41</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>68</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.99982519731505848</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>69</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>70</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>14814.23081252305</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>121.7137248321776</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2016.867560526171</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1687.9547497846941</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-7.6912371334951933E-3</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1.1948587844451579</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>40.752275522755227</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>2032.5</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>82829</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
       <c r="Z8">
         <v>0</v>
       </c>
@@ -2085,10 +2123,13 @@
         <v>0</v>
       </c>
       <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
         <v>1.204119956568299</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2110,60 +2151,61 @@
       <c r="G9" t="s">
         <v>311</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Expanded</v>
+      </c>
+      <c r="I9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>71</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>32</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>72</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.99768894218435134</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>73</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>74</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1641863.1456684419</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1281.3520771702219</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1960.3990959070479</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1687.9547497846941</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-3.5473999553727958E-2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1.1614050057663601</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>40.752275522755227</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>2032.5</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>82829</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
       <c r="Z9">
         <v>0</v>
       </c>
@@ -2177,10 +2219,13 @@
         <v>0</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
         <v>1.204119956568299</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -2202,60 +2247,61 @@
       <c r="G10" t="s">
         <v>311</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Normal</v>
+      </c>
+      <c r="I10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>77</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>40</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>41</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>78</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.99971649826889386</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>79</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>80</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>58938.885890467551</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>242.7733220320296</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>853.54754448400865</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>657.41281718730158</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>4.4375910928945633E-2</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1.298343327311227</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>56.344826742364923</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>817.28</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>46049.5</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
         <v>0</v>
       </c>
@@ -2269,10 +2315,13 @@
         <v>0</v>
       </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>1.243176248824414</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2294,60 +2343,61 @@
       <c r="G11" t="s">
         <v>311</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Expanded</v>
+      </c>
+      <c r="I11" t="s">
         <v>29</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>81</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>32</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>82</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.99827301670541857</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>83</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>84</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3225254.7849717112</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1795.8994362078611</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>837.31570157709348</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>657.41281718730158</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>2.451510079421191E-2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1.273652839869315</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>56.344826742364923</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>817.28</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>46049.5</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
       <c r="Z11">
         <v>0</v>
       </c>
@@ -2361,10 +2411,13 @@
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <v>1.243176248824414</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2386,60 +2439,61 @@
       <c r="G12" t="s">
         <v>311</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Normal</v>
+      </c>
+      <c r="I12" t="s">
         <v>38</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>87</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>41</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>88</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.99987250365185831</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>89</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>90</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>30989.213267079409</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>176.03753368835689</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>568.47529557850658</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>442.0910692702609</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>6.8562585673884541E-2</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1.2858782615013289</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>72.692293233082708</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>532</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>38672.300000000003</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>0</v>
       </c>
@@ -2453,10 +2507,13 @@
         <v>0</v>
       </c>
       <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
         <v>1.203371967857545</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2478,60 +2535,61 @@
       <c r="G13" t="s">
         <v>311</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Expanded</v>
+      </c>
+      <c r="I13" t="s">
         <v>29</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>91</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>31</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>32</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>92</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.99799206915146199</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>93</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>94</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>4187226.1529235458</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2046.2712803837981</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>556.37358879702344</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>442.0910692702609</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>4.5815016535758347E-2</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>1.258504474463606</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>72.692293233082708</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>532</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>38672.300000000003</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
       <c r="Z13">
         <v>0</v>
       </c>
@@ -2545,10 +2603,13 @@
         <v>0</v>
       </c>
       <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>1.203371967857545</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -2570,77 +2631,81 @@
       <c r="G14" t="s">
         <v>311</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Expanded</v>
+      </c>
+      <c r="I14" t="s">
         <v>29</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>96</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>31</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>32</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>97</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.99837559200943549</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>98</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>99</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2200253.3326647738</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1483.325093384715</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>455.50954955497292</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>312.69983400417158</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1.54024733726547E-2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.456699044966222</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>7.3192153366027641</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>448.6</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>3283.4</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>11.372999999999999</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>104.967</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>0.40483799999999998</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>5.4309200000000004</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>0.93769100000000005</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1.434602616367284</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2662,77 +2727,81 @@
       <c r="G15" t="s">
         <v>311</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Normal</v>
+      </c>
+      <c r="I15" t="s">
         <v>38</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>101</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>40</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>41</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>102</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.9998937508449095</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>103</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>104</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>15742.11103405709</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>125.4675696507153</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>458.47694855344258</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>312.69983400417158</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2.201727274507927E-2</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1.4661886534526469</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>7.3192153366027641</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>448.6</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>3283.4</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>11.372999999999999</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>104.967</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.40483799999999998</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>5.4309200000000004</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.93769100000000005</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1.434602616367284</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2754,60 +2823,61 @@
       <c r="G16" t="s">
         <v>311</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Expanded</v>
+      </c>
+      <c r="I16" t="s">
         <v>29</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>106</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>31</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>32</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>107</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.99697801013547627</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>108</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>109</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>5298144.8691252973</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2301.7699427017669</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>904.27256875137834</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>729.69734830915013</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>6.8627474298485341E-2</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1.2392433258072719</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>70.168990782320961</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>846.2</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>59377</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
       <c r="Z16">
         <v>0</v>
       </c>
@@ -2821,10 +2891,13 @@
         <v>0</v>
       </c>
       <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
         <v>1.1596588667353791</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2846,60 +2919,61 @@
       <c r="G17" t="s">
         <v>311</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>Bristol:Normal</v>
+      </c>
+      <c r="I17" t="s">
         <v>38</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>111</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>40</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>41</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>112</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.99985522815109062</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>113</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>114</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>32152.74576201287</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>179.3118673206346</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>929.19151890204034</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>729.69734830915013</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>9.8075536400425781E-2</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1.2733930321319611</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>70.168990782320961</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>846.2</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>59377</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
       <c r="Z17">
         <v>0</v>
       </c>
@@ -2913,10 +2987,13 @@
         <v>0</v>
       </c>
       <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>1.1596588667353791</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2938,77 +3015,81 @@
       <c r="G18" t="s">
         <v>312</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I18" t="s">
         <v>38</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>313</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>40</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>41</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>314</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.99982087381395046</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>315</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>316</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>11184.549345037351</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>105.7570297665236</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1093.1230321705709</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>868.76254528963523</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1.2722956642706359E-2</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1.25825294621344</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>63.01707445872205</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1079.3900000000001</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>68020</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>143.41499999999999</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>143.49199999999999</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.48232900000000001</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>33.582099999999997</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.82541699999999996</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1.2424453676696481</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -3030,77 +3111,81 @@
       <c r="G19" t="s">
         <v>312</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I19" t="s">
         <v>29</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>117</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>31</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>32</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>118</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.99858670800352134</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>119</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>120</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>944267.66235134925</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>971.73435791441955</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>984.82294785123645</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>868.76254528963523</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-8.7611569635408559E-2</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1.133592778821868</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>63.01707445872205</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1079.3900000000001</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>68020</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>143.41499999999999</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>143.49199999999999</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.48232900000000001</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>33.582099999999997</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.82541699999999996</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>1.2424453676696481</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -3122,60 +3207,61 @@
       <c r="G20" t="s">
         <v>312</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I20" t="s">
         <v>38</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>123</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>40</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>41</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>124</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.99997313889481587</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>125</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>126</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2081.7990214385259</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>45.626735818361212</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>646.30115512202349</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>446.15135668364582</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>5.7602937525811589E-2</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1.4486141203876211</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>53.259859270168548</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>611.1</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>32547.1</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
       <c r="Z20">
         <v>0</v>
       </c>
@@ -3189,10 +3275,13 @@
         <v>0</v>
       </c>
       <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
         <v>1.369714539349288</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -3214,60 +3303,61 @@
       <c r="G21" t="s">
         <v>312</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I21" t="s">
         <v>29</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>127</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>32</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>128</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.99744462587606453</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>129</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>130</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1664467.4917226869</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1290.142430789208</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>623.1255919100314</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>446.15135668364582</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1.9678599100034989E-2</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1.3966686026506321</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>53.259859270168548</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>611.1</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>32547.1</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
       <c r="Z21">
         <v>0</v>
       </c>
@@ -3281,10 +3371,13 @@
         <v>0</v>
       </c>
       <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
         <v>1.369714539349288</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -3306,60 +3399,61 @@
       <c r="G22" t="s">
         <v>312</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I22" t="s">
         <v>38</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>133</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>40</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>41</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>134</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.99994112495737852</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>135</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>136</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>4757.9033966089992</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>68.977557195141372</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>834.33539749431486</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>562.92411780583143</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-5.5654349027922027E-4</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1.48214541019559</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>50.80210828941064</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>834.8</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>42409.599999999999</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
       <c r="Z22">
         <v>0</v>
       </c>
@@ -3373,10 +3467,13 @@
         <v>0</v>
       </c>
       <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
         <v>1.482970747911615</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -3398,60 +3495,61 @@
       <c r="G23" t="s">
         <v>312</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I23" t="s">
         <v>29</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>137</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>31</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>32</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>138</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.99735237412817157</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>139</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>140</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1802638.153948318</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1342.6236084429311</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>803.45207591134863</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>562.92411780583143</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-3.7551418409980032E-2</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1.427283092867025</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>50.80210828941064</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>834.8</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>42409.599999999999</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
       <c r="Z23">
         <v>0</v>
       </c>
@@ -3465,10 +3563,13 @@
         <v>0</v>
       </c>
       <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
         <v>1.482970747911615</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -3490,60 +3591,61 @@
       <c r="G24" t="s">
         <v>312</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I24" t="s">
         <v>38</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>144</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>40</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>41</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>145</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.99978564298501227</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>146</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>147</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>13330.27210184553</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>115.4567975558197</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1937.6487095335369</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1535.461706386968</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>-0.1097410018224044</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1.2619322914232349</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>41.308063404548577</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>2176.5</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>89907</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
       <c r="Z24">
         <v>0</v>
       </c>
@@ -3557,10 +3659,13 @@
         <v>0</v>
       </c>
       <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
         <v>1.417488948728935</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -3582,60 +3687,61 @@
       <c r="G25" t="s">
         <v>312</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I25" t="s">
         <v>29</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>148</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>31</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>32</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>149</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.99882147922086639</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>150</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>151</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>752257.45083807933</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>867.32776436482152</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1811.842764292714</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1535.461706386968</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-0.16754295231210009</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1.1799986653891139</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>41.308063404548577</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>2176.5</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>89907</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
       <c r="Z25">
         <v>0</v>
       </c>
@@ -3649,10 +3755,13 @@
         <v>0</v>
       </c>
       <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
         <v>1.417488948728935</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -3674,60 +3783,61 @@
       <c r="G26" t="s">
         <v>312</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I26" t="s">
         <v>29</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>153</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>31</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>32</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>154</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.99858721933786732</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>155</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>156</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>957956.92669416789</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>978.75274032524067</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1000.168017152614</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>770.69831033086007</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>-8.4815971714021873E-2</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.2977425845441941</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>42.720568050802477</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1092.8599999999999</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>46687.6</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
       <c r="Z26">
         <v>0</v>
       </c>
@@ -3741,10 +3851,13 @@
         <v>0</v>
       </c>
       <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
         <v>1.418012710486982</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -3766,60 +3879,61 @@
       <c r="G27" t="s">
         <v>312</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I27" t="s">
         <v>38</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>158</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>40</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>41</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>159</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.99999673893262497</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>160</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>161</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>215.2741670487685</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>14.67222433882363</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1065.4928794747059</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>770.69831033086007</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-2.5041744162375802E-2</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1.38250319897197</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>42.720568050802477</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1092.8599999999999</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>46687.6</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
       <c r="Z27">
         <v>0</v>
       </c>
@@ -3833,10 +3947,13 @@
         <v>0</v>
       </c>
       <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <v>1.418012710486982</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -3858,60 +3975,61 @@
       <c r="G28" t="s">
         <v>312</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I28" t="s">
         <v>38</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>164</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>40</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>41</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>165</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.9999313708469717</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>166</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>167</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>4599.7948357433806</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>67.821787323421233</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>778.92355091651086</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>574.21315154036495</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>4.5675326777434397E-2</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1.3565059400450801</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>56.990871257886973</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>744.9</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>42452.5</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
       <c r="Z28">
         <v>0</v>
       </c>
@@ -3925,10 +4043,13 @@
         <v>0</v>
       </c>
       <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
         <v>1.2972534641565701</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -3950,60 +4071,61 @@
       <c r="G29" t="s">
         <v>312</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I29" t="s">
         <v>29</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>168</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>31</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>32</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>169</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.99876724264055317</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>170</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>171</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>857947.87397254014</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>926.25475651817305</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>726.41365851222838</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>574.21315154036495</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-2.4817212361084171E-2</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>1.265059249450444</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>56.990871257886973</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>744.9</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>42452.5</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
       <c r="Z29">
         <v>0</v>
       </c>
@@ -4017,10 +4139,13 @@
         <v>0</v>
       </c>
       <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
         <v>1.2972534641565701</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -4042,60 +4167,61 @@
       <c r="G30" t="s">
         <v>312</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I30" t="s">
         <v>38</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>174</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>40</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>41</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>175</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.99981590202266701</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>176</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>177</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>12445.85455291554</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>111.5609902829638</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>795.42249829124421</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>600.02510050859871</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>5.549694571555757E-2</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1.325648706390818</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>58.183651804670909</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>753.6</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>43847.199999999997</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
       <c r="Z30">
         <v>0</v>
       </c>
@@ -4109,10 +4235,13 @@
         <v>0</v>
       </c>
       <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
         <v>1.255947458466699</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -4134,60 +4263,61 @@
       <c r="G31" t="s">
         <v>312</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I31" t="s">
         <v>29</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>178</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>31</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>32</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>179</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.99879082976865985</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>180</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>181</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>847370.34817103099</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>920.52721207524928</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>737.12163320824675</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>600.02510050859871</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-2.186619797207175E-2</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1.228484662697346</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>58.183651804670909</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>753.6</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>43847.199999999997</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
       <c r="Z31">
         <v>0</v>
       </c>
@@ -4201,10 +4331,13 @@
         <v>0</v>
       </c>
       <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
         <v>1.255947458466699</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -4226,60 +4359,61 @@
       <c r="G32" t="s">
         <v>312</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I32" t="s">
         <v>38</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>184</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>40</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>41</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>185</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.99990609393501906</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>186</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>187</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>6180.0860017213199</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>78.613523020669419</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>596.86298391724404</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>470.15330896320762</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>7.6204442692470273E-2</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>1.269507142751924</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>68.652542372881342</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>554.6</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>38074.699999999997</v>
       </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
       <c r="Z32">
         <v>0</v>
       </c>
@@ -4293,10 +4427,13 @@
         <v>0</v>
       </c>
       <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
         <v>1.179615222155973</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -4318,60 +4455,61 @@
       <c r="G33" t="s">
         <v>312</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I33" t="s">
         <v>29</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>188</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>31</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>32</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>189</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.99893185694917908</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>190</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>191</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>739716.54942673049</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>860.06775862529025</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>537.6511048693369</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>470.15330896320762</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-3.0560575424924481E-2</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>1.143565502186886</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>68.652542372881342</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>554.6</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>38074.699999999997</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
       <c r="Z33">
         <v>0</v>
       </c>
@@ -4385,10 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
         <v>1.179615222155973</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -4410,60 +4551,61 @@
       <c r="G34" t="s">
         <v>312</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I34" t="s">
         <v>29</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>193</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>31</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>32</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>194</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.99895323621912568</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>195</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>196</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>1016135.856803235</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1008.035642625416</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>475.26655152154768</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>423.67678889728961</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>4.4151748844492543E-2</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1.121766790100849</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>96.106729353867792</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>455.17</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>43744.9</v>
       </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
       <c r="Z34">
         <v>0</v>
       </c>
@@ -4477,10 +4619,13 @@
         <v>0</v>
       </c>
       <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
         <v>1.074333104687369</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -4502,60 +4647,61 @@
       <c r="G35" t="s">
         <v>312</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I35" t="s">
         <v>38</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>198</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>40</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>41</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>199</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.99994523371582622</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>200</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>201</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>5006.6520254361876</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>70.757699407458034</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>511.58608561165772</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>423.67678889728961</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.1239450877950166</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1.2074914156689369</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>96.106729353867792</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>455.17</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>43744.9</v>
       </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
       <c r="Z35">
         <v>0</v>
       </c>
@@ -4569,10 +4715,13 @@
         <v>0</v>
       </c>
       <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
         <v>1.074333104687369</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -4594,60 +4743,61 @@
       <c r="G36" t="s">
         <v>312</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I36" t="s">
         <v>29</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>203</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>31</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>32</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>204</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.99874552618261225</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>205</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>206</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>861140.65285099135</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>927.97664456116104</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>686.01480276963503</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>594.5907659084894</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>-2.925638855844151E-2</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>1.153759597530003</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>59.849863447905022</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>706.69</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>42295.3</v>
       </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
       <c r="Z36">
         <v>0</v>
       </c>
@@ -4661,10 +4811,13 @@
         <v>0</v>
       </c>
       <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
         <v>1.1885317440479111</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -4686,60 +4839,61 @@
       <c r="G37" t="s">
         <v>312</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I37" t="s">
         <v>38</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>208</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>40</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>41</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>209</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.99991475910755045</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>210</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>211</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>5659.5896804126278</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>75.230244452697534</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>756.28141482044373</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>594.5907659084894</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>7.0174213333206462E-2</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>1.2719360242080171</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>59.849863447905022</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>706.69</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>42295.3</v>
       </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
       <c r="Z37">
         <v>0</v>
       </c>
@@ -4753,10 +4907,13 @@
         <v>0</v>
       </c>
       <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
         <v>1.1885317440479111</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -4778,60 +4935,61 @@
       <c r="G38" t="s">
         <v>312</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I38" t="s">
         <v>29</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>213</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>31</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>32</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>214</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.99864875687614507</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>215</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>216</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>943261.00294229807</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>971.21624931953136</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>590.2488763577087</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>398.85712477743272</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>-4.852280751558205E-2</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>1.4798504017875449</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>587.85878939308452</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>620.35</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>364678.2</v>
       </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
       <c r="Z38">
         <v>0</v>
       </c>
@@ -4845,10 +5003,13 @@
         <v>0</v>
       </c>
       <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
         <v>1.5553188384090251</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -4870,60 +5031,61 @@
       <c r="G39" t="s">
         <v>312</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I39" t="s">
         <v>38</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>218</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>40</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>41</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>219</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.9999829321418845</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>220</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>221</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>1154.0112704476039</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>33.970741387959201</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>602.50544628585408</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>398.85712477743272</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>-2.876529977294422E-2</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>1.510579625779682</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>587.85878939308452</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>620.35</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>364678.2</v>
       </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
       <c r="Z39">
         <v>0</v>
       </c>
@@ -4937,10 +5099,13 @@
         <v>0</v>
       </c>
       <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
         <v>1.5553188384090251</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -4962,60 +5127,61 @@
       <c r="G40" t="s">
         <v>312</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I40" t="s">
         <v>38</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>224</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>40</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>41</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>225</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>0.99988186321641559</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>226</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>227</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>7982.3309638047231</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>89.343891586413022</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>300.48303738614629</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>222.6308781123598</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>3.8188983125958913E-2</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>1.3496916507443999</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>78.222368102822799</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>289.43</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>22639.9</v>
       </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
       <c r="Z40">
         <v>0</v>
       </c>
@@ -5029,10 +5195,13 @@
         <v>0</v>
       </c>
       <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
         <v>1.3000442816109601</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -5054,60 +5223,61 @@
       <c r="G41" t="s">
         <v>312</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I41" t="s">
         <v>29</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>229</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>31</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>32</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>230</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.99864487481543796</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>231</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>232</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>947809.25684309739</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>973.55495830646225</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>279.25958901949349</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>222.6308781123598</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>-3.5139449886005307E-2</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>1.2543614407277039</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>78.222368102822799</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>289.43</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>22639.9</v>
       </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
       <c r="Z41">
         <v>0</v>
       </c>
@@ -5121,10 +5291,13 @@
         <v>0</v>
       </c>
       <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
         <v>1.3000442816109601</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -5146,60 +5319,61 @@
       <c r="G42" t="s">
         <v>312</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I42" t="s">
         <v>29</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>229</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>31</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>32</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>230</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.99864487481543796</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>231</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>232</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>947809.25684309739</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>973.55495830646225</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>86.786395604245669</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>59.662433311519813</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>-1.233190390069802E-2</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>1.4546238024034579</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>103.5450096733811</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>87.87</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>9098.5</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
       <c r="Z42">
         <v>0</v>
       </c>
@@ -5213,10 +5387,13 @@
         <v>0</v>
       </c>
       <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
         <v>1.472786058543706</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -5238,60 +5415,61 @@
       <c r="G43" t="s">
         <v>312</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I43" t="s">
         <v>38</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>224</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>40</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>41</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>225</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.99988186321641559</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>226</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>227</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>7982.3309638047231</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>89.343891586413022</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>88.689051313722359</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>59.662433311519813</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>9.3211712043058462E-3</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>1.486514149542707</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>103.5450096733811</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>87.87</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>9098.5</v>
       </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
       <c r="Z43">
         <v>0</v>
       </c>
@@ -5305,10 +5483,13 @@
         <v>0</v>
       </c>
       <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
         <v>1.472786058543706</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -5330,60 +5511,61 @@
       <c r="G44" t="s">
         <v>312</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I44" t="s">
         <v>29</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>229</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>31</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>32</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>230</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.99864487481543796</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>231</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>232</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>947809.25684309739</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>973.55495830646225</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>101.4805047175404</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>69.027828648234745</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>-4.2094537308472707E-2</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>1.470139025155843</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>90.337927128563337</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>105.94</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>9570.4</v>
       </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
       <c r="Z44">
         <v>0</v>
       </c>
@@ -5397,10 +5579,13 @@
         <v>0</v>
       </c>
       <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
         <v>1.5347433357620071</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>5</v>
       </c>
@@ -5422,60 +5607,61 @@
       <c r="G45" t="s">
         <v>312</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I45" t="s">
         <v>38</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>224</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>40</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>41</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>225</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.99988186321641559</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>226</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>227</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>7982.3309638047231</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>89.343891586413022</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>103.6266314033094</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>69.027828648234745</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>-2.183659237956008E-2</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>1.5012297711317251</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>90.337927128563337</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>105.94</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>9570.4</v>
       </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
       <c r="Z45">
         <v>0</v>
       </c>
@@ -5489,10 +5675,13 @@
         <v>0</v>
       </c>
       <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
         <v>1.5347433357620071</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -5514,60 +5703,61 @@
       <c r="G46" t="s">
         <v>312</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I46" t="s">
         <v>29</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>236</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>31</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>32</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>237</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.9986594499795497</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>238</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>239</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>947904.35424197593</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>973.6037973641927</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>617.60903942408515</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>410.47722547994101</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>-4.6163645677088569E-2</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>1.504612195480419</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>71.197683397683392</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>647.5</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>46100.5</v>
       </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
       <c r="Z46">
         <v>0</v>
       </c>
@@ -5581,10 +5771,13 @@
         <v>0</v>
       </c>
       <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
         <v>1.577432217446231</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -5606,60 +5799,61 @@
       <c r="G47" t="s">
         <v>312</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I47" t="s">
         <v>38</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>241</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>40</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>41</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>242</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.99988583361336947</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>243</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>244</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>7830.6313005124712</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>88.490854332594566</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>629.14341334053461</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>410.47722547994101</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>-2.8349940786819142E-2</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>1.5327121074864101</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>71.197683397683392</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>647.5</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>46100.5</v>
       </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
       <c r="Z47">
         <v>0</v>
       </c>
@@ -5673,10 +5867,13 @@
         <v>0</v>
       </c>
       <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
         <v>1.577432217446231</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -5698,60 +5895,61 @@
       <c r="G48" t="s">
         <v>312</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I48" t="s">
         <v>29</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>246</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>31</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>32</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>247</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>0.99881403943162961</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>248</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>249</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>817310.33120256383</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>904.0521728321678</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>783.91641451234489</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>512.51795861780693</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>-1.1258734552179769E-3</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>1.52953940702188</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>51.159785932721711</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>784.8</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>40150.199999999997</v>
       </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
       <c r="Z48">
         <v>0</v>
       </c>
@@ -5765,10 +5963,13 @@
         <v>0</v>
       </c>
       <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
         <v>1.5312634158547369</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -5790,60 +5991,61 @@
       <c r="G49" t="s">
         <v>312</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I49" t="s">
         <v>38</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>251</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>40</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>41</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>252</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.99987077943686908</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>253</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>254</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>8625.4984090901653</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>92.873561410609028</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>789.91765841750203</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>512.51795861780693</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>6.5209714799975421E-3</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>1.5412487409178901</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>51.159785932721711</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>784.8</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>40150.199999999997</v>
       </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
       <c r="Z49">
         <v>0</v>
       </c>
@@ -5857,10 +6059,13 @@
         <v>0</v>
       </c>
       <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
         <v>1.5312634158547369</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -5882,60 +6087,61 @@
       <c r="G50" t="s">
         <v>312</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I50" t="s">
         <v>29</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>256</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>31</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>32</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>257</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.99864498686790382</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>258</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>259</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>961609.37350798131</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>980.61683317592565</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>452.91452985948263</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>338.85636581571629</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>-2.1711172956980608E-3</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>1.3365973773849531</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>68.081295439524126</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>453.9</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>30902.1</v>
       </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
       <c r="Z50">
         <v>0</v>
       </c>
@@ -5949,10 +6155,13 @@
         <v>0</v>
       </c>
       <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
         <v>1.3395056011633231</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -5974,60 +6183,61 @@
       <c r="G51" t="s">
         <v>312</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I51" t="s">
         <v>38</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>261</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>40</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>41</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>262</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>0.99995635091134072</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>263</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>264</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>3062.5489598835611</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>55.340301407595902</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>479.03715071738782</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>338.85636581571629</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>5.5380371706075883E-2</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>1.4136879192581191</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>68.081295439524126</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>453.9</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>30902.1</v>
       </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
       <c r="Z51">
         <v>0</v>
       </c>
@@ -6041,10 +6251,13 @@
         <v>0</v>
       </c>
       <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
         <v>1.3395056011633231</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -6066,60 +6279,61 @@
       <c r="G52" t="s">
         <v>312</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I52" t="s">
         <v>29</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>266</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>31</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>32</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>267</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>0.99892534691161416</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>268</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>269</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>687972.91847450985</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>829.44132913335704</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>526.7887819540972</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>416.05114886016952</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>-6.4866451362261615E-2</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>1.2661635075334099</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>82.533151083734225</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>563.33000000000004</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>46493.4</v>
       </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
       <c r="Z52">
         <v>0</v>
       </c>
@@ -6133,10 +6347,13 @@
         <v>0</v>
       </c>
       <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
         <v>1.353992175104723</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -6158,60 +6375,61 @@
       <c r="G53" t="s">
         <v>312</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I53" t="s">
         <v>38</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>271</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>40</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>41</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>272</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>0.999536724346476</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>273</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>274</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>27792.34437001247</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>166.71036071586099</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>566.0504788030147</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>416.05114886016952</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>4.8292808886703301E-3</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>1.360530983639366</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>82.533151083734225</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>563.33000000000004</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>46493.4</v>
       </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
       <c r="Z53">
         <v>0</v>
       </c>
@@ -6225,10 +6443,13 @@
         <v>0</v>
       </c>
       <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
         <v>1.353992175104723</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -6250,60 +6471,61 @@
       <c r="G54" t="s">
         <v>312</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I54" t="s">
         <v>38</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>277</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>40</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>41</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>278</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>0.99992899317154882</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>279</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>280</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>4129.9125892495358</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>64.264395968915295</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>238.147258631028</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>164.82099296891769</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>-2.8169389874047319E-3</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>1.44488426104761</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>72.897998492588556</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>238.82</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>17409.5</v>
       </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
       <c r="Z54">
         <v>0</v>
       </c>
@@ -6317,10 +6539,13 @@
         <v>0</v>
       </c>
       <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
         <v>1.44896590960981</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -6342,60 +6567,61 @@
       <c r="G55" t="s">
         <v>312</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I55" t="s">
         <v>29</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>282</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>31</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>32</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>283</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>0.99898940147146886</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>284</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>285</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>626436.26479329634</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>791.47726738883432</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>229.37273958859939</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>164.82099296891769</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>-3.9558078935602571E-2</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>1.3916476017824679</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>72.897998492588556</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>238.82</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>17409.5</v>
       </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
       <c r="Z55">
         <v>0</v>
       </c>
@@ -6409,10 +6635,13 @@
         <v>0</v>
       </c>
       <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
         <v>1.44896590960981</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -6434,60 +6663,61 @@
       <c r="G56" t="s">
         <v>312</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I56" t="s">
         <v>29</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>282</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>31</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>32</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>283</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>0.99898940147146886</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>284</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>285</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>626436.26479329634</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>791.47726738883432</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>295.70185022556819</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>215.53136767950039</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>-8.2127358376061055E-2</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>1.371966658074953</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>80.009312143034506</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>322.16000000000003</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>25775.8</v>
       </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
       <c r="Z56">
         <v>0</v>
       </c>
@@ -6501,10 +6731,13 @@
         <v>0</v>
       </c>
       <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
         <v>1.494724426743576</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -6526,60 +6759,61 @@
       <c r="G57" t="s">
         <v>312</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I57" t="s">
         <v>38</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>277</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>40</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>41</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>278</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>0.99992899317154882</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>279</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>280</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>4129.9125892495358</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>64.264395968915295</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>310.93934951296262</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>215.53136767950039</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>-3.4829434091871753E-2</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>1.4426640208367989</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>80.009312143034506</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>322.16000000000003</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>25775.8</v>
       </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
       <c r="Z57">
         <v>0</v>
       </c>
@@ -6593,10 +6827,13 @@
         <v>0</v>
       </c>
       <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
         <v>1.494724426743576</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -6618,60 +6855,61 @@
       <c r="G58" t="s">
         <v>312</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I58" t="s">
         <v>38</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>289</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>40</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>41</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>290</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>0.99982859105768773</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>291</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>292</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>15216.174037177399</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>123.3538570016252</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>705.81067633379246</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>585.13299960457709</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>0.12803368440753141</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>1.206239738334306</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>74.575195780725579</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>625.70000000000005</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>46661.7</v>
       </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
       <c r="Z58">
         <v>0</v>
       </c>
@@ -6685,10 +6923,13 @@
         <v>0</v>
       </c>
       <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
         <v>1.0693295377680589</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -6710,60 +6951,61 @@
       <c r="G59" t="s">
         <v>312</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I59" t="s">
         <v>29</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>293</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>31</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>32</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>294</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>0.99901002099263114</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>295</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>296</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>943693.99371889106</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>971.43913536509899</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>618.59850391936084</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>585.13299960457709</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>-1.134968208508744E-2</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>1.057192987470198</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>74.575195780725579</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>625.70000000000005</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>46661.7</v>
       </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
       <c r="Z59">
         <v>0</v>
       </c>
@@ -6777,10 +7019,13 @@
         <v>0</v>
       </c>
       <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
         <v>1.0693295377680589</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -6802,60 +7047,61 @@
       <c r="G60" t="s">
         <v>312</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Expanded</v>
+      </c>
+      <c r="I60" t="s">
         <v>29</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>298</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>31</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>32</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>299</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>0.99890621540189228</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>300</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>301</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>1046631.847678181</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>1023.050266447441</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>512.04722265095097</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>446.13977677541652</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>-9.5798401335571159E-3</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>1.1477282441657559</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>98.181818181818187</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>517</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>50760</v>
       </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
       <c r="Z60">
         <v>0</v>
       </c>
@@ -6869,10 +7115,13 @@
         <v>0</v>
       </c>
       <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
         <v>1.158829646925327</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -6894,60 +7143,61 @@
       <c r="G61" t="s">
         <v>312</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>London:Normal</v>
+      </c>
+      <c r="I61" t="s">
         <v>38</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>303</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>40</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>41</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>304</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>0.99988233990418507</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>305</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>306</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>10508.819966946419</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>102.51253565757909</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>564.63825527713436</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>446.13977677541652</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>9.2143627228499739E-2</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>1.265608413932948</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>98.181818181818187</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>517</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>50760</v>
       </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
       <c r="Z61">
         <v>0</v>
       </c>
@@ -6961,6 +7211,9 @@
         <v>0</v>
       </c>
       <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
         <v>1.158829646925327</v>
       </c>
     </row>
